--- a/src/test/java/utilities/stok.xlsx
+++ b/src/test/java/utilities/stok.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039165DD-1D8E-3B43-B9AE-55D8A77AD94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE98E91-EE77-3943-8E8F-B9B0B5842ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27180" yWindow="500" windowWidth="11220" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -371,7 +372,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,4 +468,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBF54D-8344-F240-9A79-F082D7424D5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>